--- a/public/excel/branddata.xlsx
+++ b/public/excel/branddata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Sr. No</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>www.test.com</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Yopmail</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +517,37 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>9727466631</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>987456321</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
